--- a/Raw_data/Stoich/Solomon Hyphae CN calc_11.07.24.xlsx
+++ b/Raw_data/Stoich/Solomon Hyphae CN calc_11.07.24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://westernsydneyedu-my.sharepoint.com/personal/90957135_westernsydney_edu_au/Documents/ABS_FIRE/ABS_FIRE_MYCO/Raw_data/Stoich/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{D909B607-5A73-44E5-B963-A936AA2C2221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{852FC85C-B1FD-43BC-BDDD-5AD81620117A}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{D909B607-5A73-44E5-B963-A936AA2C2221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29AE8CE5-5AC8-40E4-B417-212B708F4F6E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0D8C2ACB-795A-4223-9962-479F7904174F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D8C2ACB-795A-4223-9962-479F7904174F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -485,10 +485,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADACB08-A163-4D4D-81B2-FC1C8D3A31CB}">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="74" workbookViewId="0">
-      <selection activeCell="W44" sqref="W44"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="74" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -905,27 +905,27 @@
       <c r="E2" s="29">
         <v>1.2330000000000001</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="37">
         <f>AVERAGE(C2:C6)</f>
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="37">
         <f t="shared" ref="G2:H2" si="0">AVERAGE(D2:D6)</f>
         <v>15.046699999999998</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="37">
         <f t="shared" si="0"/>
         <v>1.1981999999999999</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="36">
         <f>_xlfn.STDEV.S(C2:C6)</f>
         <v>4.5398237851264674E-3</v>
       </c>
-      <c r="J2" s="37">
+      <c r="J2" s="36">
         <f>_xlfn.STDEV.S(D2:D6)</f>
         <v>4.2390506012549706E-2</v>
       </c>
-      <c r="K2" s="37">
+      <c r="K2" s="36">
         <f>_xlfn.STDEV.S(E2:E6)</f>
         <v>1.9677398201998215E-2</v>
       </c>
@@ -973,12 +973,12 @@
       <c r="E3" s="6">
         <v>1.194</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
       <c r="M3" s="7">
         <f t="shared" si="1"/>
         <v>1.0352824740463071</v>
@@ -1008,12 +1008,12 @@
       <c r="E4" s="6">
         <v>1.1859999999999999</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
       <c r="M4" s="7">
         <f t="shared" si="1"/>
         <v>0.52865488036407182</v>
@@ -1043,12 +1043,12 @@
       <c r="E5" s="6">
         <v>1.19</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
       <c r="M5" s="7">
         <f t="shared" si="1"/>
         <v>0.33040930022754478</v>
@@ -1078,12 +1078,12 @@
       <c r="E6" s="6">
         <v>1.1879999999999999</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
       <c r="M6" s="7">
         <f t="shared" si="1"/>
         <v>1.2115007675009979</v>
@@ -1135,27 +1135,27 @@
       <c r="E8" s="29">
         <v>6.0789999999999997</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="37">
         <f>AVERAGE(C8:C12)</f>
         <v>22.114240000000002</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="37">
         <f t="shared" ref="G8:H8" si="2">AVERAGE(D8:D12)</f>
         <v>3.0219999999999997E-2</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="37">
         <f t="shared" si="2"/>
         <v>6.1908000000000003</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="36">
         <f>_xlfn.STDEV.S(C8:C12)</f>
         <v>6.2860146356812197E-2</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="36">
         <f>_xlfn.STDEV.S(D8:D12)</f>
         <v>3.4495753361827024E-2</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="36">
         <f>_xlfn.STDEV.S(E8:E12)</f>
         <v>6.3829460282850692E-2</v>
       </c>
@@ -1203,12 +1203,12 @@
       <c r="E9" s="6">
         <v>6.2060000000000004</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
       <c r="M9" s="7">
         <f t="shared" si="3"/>
         <v>0.51956608269107174</v>
@@ -1238,12 +1238,12 @@
       <c r="E10" s="6">
         <v>6.2069999999999999</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
       <c r="M10" s="7">
         <f t="shared" si="3"/>
         <v>0.22048946436306735</v>
@@ -1273,12 +1273,12 @@
       <c r="E11" s="6">
         <v>6.2249999999999996</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
       <c r="M11" s="7">
         <f t="shared" si="3"/>
         <v>0.30162195124990521</v>
@@ -1308,12 +1308,12 @@
       <c r="E12" s="6">
         <v>6.2370000000000001</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
       <c r="M12" s="7">
         <f t="shared" si="3"/>
         <v>0.71364771798904403</v>
@@ -1353,27 +1353,27 @@
       <c r="E14" s="6">
         <v>6.3890000000000002</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="37">
         <f>AVERAGE(C14:C15)</f>
         <v>1.7828499999999998</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="37">
         <f t="shared" ref="G14:H14" si="4">AVERAGE(D14:D15)</f>
         <v>49.377850000000002</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="37">
         <f t="shared" si="4"/>
         <v>6.3704999999999998</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="36">
         <f>_xlfn.STDEV.S(C14:C15)</f>
         <v>2.8991378028648397E-3</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="36">
         <f>_xlfn.STDEV.S(D14:D15)</f>
         <v>3.4860364312498449E-2</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="36">
         <f>_xlfn.STDEV.S(E14:E15)</f>
         <v>2.6162950903902204E-2</v>
       </c>
@@ -1394,12 +1394,12 @@
       <c r="E15" s="6">
         <v>6.3520000000000003</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F16" s="2"/>
@@ -2324,11 +2324,11 @@
         <v>0.17451369249999998</v>
       </c>
       <c r="N47" s="12">
-        <f t="shared" ref="N47:P49" si="14">F18-K47</f>
+        <f>F18-K47</f>
         <v>1.8495083500000009E-2</v>
       </c>
       <c r="O47" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="N47:P49" si="14">G18-L47</f>
         <v>0.17233031600000026</v>
       </c>
       <c r="P47" s="14">
@@ -4295,24 +4295,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="K8:K12"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="K8:K12"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="H8:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
